--- a/docs/dubbo-test一本通.xlsx
+++ b/docs/dubbo-test一本通.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="6240" tabRatio="800" activeTab="2"/>
+    <workbookView windowWidth="19665" windowHeight="6240" tabRatio="800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="微服务配置" sheetId="8" r:id="rId1"/>
     <sheet name="服务器接口" sheetId="9" r:id="rId2"/>
     <sheet name="模块说明" sheetId="12" r:id="rId3"/>
+    <sheet name="持续学习网站" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc468897187" localSheetId="1">服务器接口!#REF!</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>instance</t>
   </si>
@@ -104,6 +105,24 @@
   </si>
   <si>
     <t>pom模块，主要用来统一控制依赖的jar版本</t>
+  </si>
+  <si>
+    <t>优秀帖子</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>当当的dubbox</t>
+  </si>
+  <si>
+    <t>https://github.com/dangdangdotcom/dubbox</t>
+  </si>
+  <si>
+    <t>dubbo官方</t>
+  </si>
+  <si>
+    <t>https://github.com/alibaba/dubbo/releases/tag/dubbo-2.6.0</t>
   </si>
 </sst>
 </file>
@@ -112,9 +131,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,6 +144,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -132,16 +159,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,33 +243,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,84 +259,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,25 +310,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,25 +436,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,120 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +550,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -548,9 +606,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,30 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -602,32 +647,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,145 +667,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1164,16 +1186,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -1181,91 +1203,91 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>2080</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>8888</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1291,135 +1313,135 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1437,7 +1459,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1517,4 +1539,53 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/dangdangdotcom/dubbox"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://github.com/alibaba/dubbo/releases/tag/dubbo-2.6.0"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>